--- a/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216ABF49-3DC2-884C-81C7-DBCA48D1D4CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DFA927FC-D13F-FD4F-93A5-6D641B1D13BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4269,7 +4269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -6537,13 +6537,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8911,38 +8911,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="1" width="17.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="154">
         <v>291253.25028181821</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14060,7 +14060,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14083,7 +14083,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="151"/>
+      <c r="B3" s="155"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14105,7 +14105,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="151"/>
+      <c r="B4" s="155"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14127,7 +14127,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14150,7 +14150,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="151"/>
+      <c r="B6" s="155"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14171,7 +14171,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="151"/>
+      <c r="B7" s="155"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14192,7 +14192,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14215,7 +14215,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="151"/>
+      <c r="B9" s="155"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14236,7 +14236,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="151"/>
+      <c r="B10" s="155"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14257,7 +14257,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14280,7 +14280,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="151"/>
+      <c r="B12" s="155"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14301,7 +14301,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14322,7 +14322,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14345,7 +14345,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="151"/>
+      <c r="B16" s="155"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14443,7 +14443,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="151"/>
+      <c r="B20" s="155"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14464,7 +14464,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="151"/>
+      <c r="B21" s="155"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14485,7 +14485,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14508,7 +14508,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="151"/>
+      <c r="B23" s="155"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14529,7 +14529,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="151"/>
+      <c r="B24" s="155"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14550,7 +14550,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14573,7 +14573,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="151"/>
+      <c r="B26" s="155"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14594,7 +14594,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="151"/>
+      <c r="B27" s="155"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14615,7 +14615,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="151"/>
+      <c r="B29" s="155"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14659,7 +14659,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="151"/>
+      <c r="B30" s="155"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14680,7 +14680,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14703,7 +14703,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="151"/>
+      <c r="B32" s="155"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14724,7 +14724,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="151"/>
+      <c r="B33" s="155"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14794,7 +14794,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="151"/>
+      <c r="B37" s="155"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="151"/>
+      <c r="B38" s="155"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14837,7 +14837,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14860,7 +14860,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="151"/>
+      <c r="B40" s="155"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14881,7 +14881,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="151"/>
+      <c r="B41" s="155"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14902,7 +14902,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14925,7 +14925,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="151"/>
+      <c r="B43" s="155"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14946,7 +14946,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="151"/>
+      <c r="B44" s="155"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14967,7 +14967,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14990,7 +14990,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="151"/>
+      <c r="B46" s="155"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -15011,7 +15011,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="151"/>
+      <c r="B47" s="155"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -15032,7 +15032,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -15055,7 +15055,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="151"/>
+      <c r="B49" s="155"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15076,7 +15076,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="151"/>
+      <c r="B50" s="155"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15121,6 +15121,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15131,11 +15136,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27894,8 +27894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28143,9 +28143,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DFA927FC-D13F-FD4F-93A5-6D641B1D13BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DB30CF5-3C9F-BB48-A4EB-CA51A36CBF8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4269,7 +4269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -25403,8 +25403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25506,7 +25506,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="125">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="147">
         <v>0.95</v>
@@ -27894,8 +27894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28066,7 +28066,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0C78AA92-0D57-DE41-8D1F-C6171FCA7357}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB9E7A92-1B08-6442-A459-D2287E708CCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6259,7 +6259,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6492,7 +6492,6 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8883,32 +8882,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="151"/>
+    <col min="1" max="1" width="17.5" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="149" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="152">
         <v>291253.25028181821</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8962,17 +8961,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="148">
+      <c r="C2" s="147">
         <f>1-D2-E2-F2</f>
         <v>0.76741860465116274</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="148">
         <v>0.13538953488372094</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="148">
         <v>8.1573255813953499E-2</v>
       </c>
-      <c r="F2" s="149">
+      <c r="F2" s="148">
         <v>1.5618604651162792E-2</v>
       </c>
     </row>
@@ -13857,25 +13856,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="153" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="156">
+      <c r="C18" s="155">
         <v>1.5</v>
       </c>
-      <c r="D18" s="156">
+      <c r="D18" s="155">
         <v>1.39</v>
       </c>
-      <c r="E18" s="155">
-        <v>1</v>
-      </c>
-      <c r="F18" s="155">
-        <v>1</v>
-      </c>
-      <c r="G18" s="155">
+      <c r="E18" s="154">
+        <v>1</v>
+      </c>
+      <c r="F18" s="154">
+        <v>1</v>
+      </c>
+      <c r="G18" s="154">
         <v>1</v>
       </c>
     </row>
@@ -14006,7 +14005,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14029,7 +14028,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14051,7 +14050,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="159"/>
+      <c r="B4" s="158"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14073,7 +14072,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14096,7 +14095,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="159"/>
+      <c r="B6" s="158"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14117,7 +14116,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="159"/>
+      <c r="B7" s="158"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14138,7 +14137,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14161,7 +14160,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="159"/>
+      <c r="B9" s="158"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14182,7 +14181,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="159"/>
+      <c r="B10" s="158"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14203,7 +14202,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14226,7 +14225,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="159"/>
+      <c r="B12" s="158"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14247,7 +14246,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="159"/>
+      <c r="B13" s="158"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14268,7 +14267,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14291,7 +14290,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="159"/>
+      <c r="B15" s="158"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14312,7 +14311,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="159"/>
+      <c r="B16" s="158"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14366,7 +14365,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14389,7 +14388,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="159"/>
+      <c r="B20" s="158"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14410,7 +14409,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14431,7 +14430,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14454,7 +14453,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="159"/>
+      <c r="B23" s="158"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14475,7 +14474,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="159"/>
+      <c r="B24" s="158"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14496,7 +14495,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14519,7 +14518,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="159"/>
+      <c r="B26" s="158"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14540,7 +14539,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="159"/>
+      <c r="B27" s="158"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14561,7 +14560,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14584,7 +14583,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="159"/>
+      <c r="B29" s="158"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14605,7 +14604,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="159"/>
+      <c r="B30" s="158"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14626,7 +14625,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14649,7 +14648,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="159"/>
+      <c r="B32" s="158"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14670,7 +14669,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="159"/>
+      <c r="B33" s="158"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14717,7 +14716,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14740,7 +14739,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="159"/>
+      <c r="B37" s="158"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14761,7 +14760,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="159"/>
+      <c r="B38" s="158"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14783,7 +14782,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14806,7 +14805,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="159"/>
+      <c r="B40" s="158"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14827,7 +14826,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="159"/>
+      <c r="B41" s="158"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14848,7 +14847,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14871,7 +14870,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="159"/>
+      <c r="B43" s="158"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14892,7 +14891,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="159"/>
+      <c r="B44" s="158"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14913,7 +14912,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14936,7 +14935,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="159"/>
+      <c r="B46" s="158"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14957,7 +14956,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="159"/>
+      <c r="B47" s="158"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14978,7 +14977,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -15001,7 +15000,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="159"/>
+      <c r="B49" s="158"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15022,7 +15021,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="159"/>
+      <c r="B50" s="158"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15067,11 +15066,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15082,6 +15076,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18984,50 +18983,50 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="155">
-        <v>0</v>
-      </c>
-      <c r="G53" s="155">
-        <v>0</v>
-      </c>
-      <c r="H53" s="155">
+      <c r="F53" s="154">
+        <v>0</v>
+      </c>
+      <c r="G53" s="154">
+        <v>0</v>
+      </c>
+      <c r="H53" s="154">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="155" t="s">
+      <c r="A54" s="154"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <v>0.51</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <v>0.51</v>
       </c>
-      <c r="F54" s="155">
-        <v>0</v>
-      </c>
-      <c r="G54" s="155">
-        <v>0</v>
-      </c>
-      <c r="H54" s="155">
+      <c r="F54" s="154">
+        <v>0</v>
+      </c>
+      <c r="G54" s="154">
+        <v>0</v>
+      </c>
+      <c r="H54" s="154">
         <v>0</v>
       </c>
     </row>
@@ -20094,8 +20093,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -22522,8 +22521,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -24637,7 +24636,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="155" t="s">
+      <c r="A41" s="154" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25184,19 +25183,19 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155" t="s">
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="155" t="s">
+      <c r="I52" s="154" t="s">
         <v>161</v>
       </c>
     </row>
@@ -25509,8 +25508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25584,10 +25583,10 @@
       <c r="B5" s="124">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="146">
         <v>0.95</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="146">
         <v>60</v>
       </c>
     </row>
@@ -25613,10 +25612,10 @@
       <c r="B7" s="124">
         <v>0</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="145">
         <v>0.95</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <f>0.25/((9862402+13370081 )/57310019)</f>
         <v>0.61670139821042802</v>
       </c>
@@ -25852,10 +25851,10 @@
       <c r="B24" s="120">
         <v>0.32</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="145">
         <v>0.95</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="145">
         <v>2.06</v>
       </c>
     </row>
@@ -25880,10 +25879,10 @@
       <c r="B26" s="124">
         <v>0.75600000000000001</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="146">
         <v>0.95</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="146">
         <v>3.78</v>
       </c>
     </row>
@@ -26048,10 +26047,10 @@
       <c r="B38" s="120">
         <v>0.1</v>
       </c>
-      <c r="C38" s="146">
+      <c r="C38" s="145">
         <v>0.95</v>
       </c>
-      <c r="D38" s="146">
+      <c r="D38" s="145">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -26062,7 +26061,7 @@
       <c r="B39" s="120">
         <v>0</v>
       </c>
-      <c r="C39" s="146">
+      <c r="C39" s="145">
         <v>0.95</v>
       </c>
       <c r="D39" s="140">
@@ -26077,7 +26076,7 @@
       <c r="B40" s="120">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C40" s="146">
+      <c r="C40" s="145">
         <v>0.95</v>
       </c>
       <c r="D40" s="140">
@@ -26095,7 +26094,7 @@
       <c r="C41" s="120">
         <v>1</v>
       </c>
-      <c r="D41" s="146">
+      <c r="D41" s="145">
         <v>0.41</v>
       </c>
     </row>
@@ -26176,7 +26175,7 @@
       <c r="B47" s="126">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C47" s="146">
+      <c r="C47" s="145">
         <v>0.95</v>
       </c>
       <c r="D47" s="140">
@@ -26201,10 +26200,10 @@
       <c r="A49" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="144">
-        <v>0</v>
-      </c>
-      <c r="C49" s="145">
+      <c r="B49" s="154">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="C49" s="144">
         <v>0.95</v>
       </c>
       <c r="D49" s="143" t="s">
@@ -26240,16 +26239,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="157">
-        <v>0</v>
-      </c>
-      <c r="C52" s="158">
+      <c r="B52" s="156">
+        <v>0</v>
+      </c>
+      <c r="C52" s="157">
         <v>0.95</v>
       </c>
-      <c r="D52" s="158">
+      <c r="D52" s="157">
         <v>8.84</v>
       </c>
     </row>
@@ -26867,8 +26866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27887,7 +27886,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27895,9 +27894,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="23"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="23">
+        <v>0</v>
+      </c>
+      <c r="D97" s="154">
+        <v>7.1099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27907,7 +27911,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27917,7 +27921,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27927,7 +27931,7 @@
       </c>
       <c r="C100" s="23"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27937,23 +27941,23 @@
       </c>
       <c r="C101" s="23"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="155" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="158"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="155" t="s">
+      <c r="C102" s="157"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="154" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="158"/>
+      <c r="C103" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28363,10 +28367,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="154" t="s">
         <v>161</v>
       </c>
     </row>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Mara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB9E7A92-1B08-6442-A459-D2287E708CCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{648FE0CF-0C3D-264B-84A2-9E4E54E5FDB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15066,6 +15066,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15076,11 +15081,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15316,8 +15316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15431,8 +15431,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15446,8 +15446,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15461,8 +15461,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15476,8 +15476,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15491,8 +15491,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -26866,7 +26866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
